--- a/Chapter 10.xlsx
+++ b/Chapter 10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12300"/>
+    <workbookView windowWidth="10672" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Chapter 10</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Land Improvement 2</t>
   </si>
   <si>
+    <t>Appraised</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -110,6 +113,27 @@
     <t>Construction</t>
   </si>
   <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>LI 1</t>
+  </si>
+  <si>
+    <t>LI 2</t>
+  </si>
+  <si>
+    <t>Accum-Building 2</t>
+  </si>
+  <si>
+    <t>Accum-Building 3</t>
+  </si>
+  <si>
+    <t>Accum-LI1</t>
+  </si>
+  <si>
+    <t>Accum-LI2</t>
+  </si>
+  <si>
     <t>10-3A</t>
   </si>
   <si>
@@ -129,6 +153,24 @@
   </si>
   <si>
     <t>Loss on Disposal</t>
+  </si>
+  <si>
+    <t>10-5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>Straight-Line</t>
+  </si>
+  <si>
+    <t>Units of Production</t>
+  </si>
+  <si>
+    <t>Double-Declining</t>
+  </si>
+  <si>
+    <t>Depreciation Expense per Unit</t>
   </si>
 </sst>
 </file>
@@ -825,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,9 +904,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +947,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1410,16 +1482,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="12.8571428571429"/>
-    <col min="5" max="5" width="11.7142857142857"/>
+    <col min="4" max="4" width="12.858407079646"/>
+    <col min="5" max="5" width="11.716814159292"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1432,6 +1504,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" ht="15"/>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
@@ -1533,7 +1606,7 @@
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" ht="15" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1553,9 +1626,9 @@
         <f>SUM(H6:I9)</f>
         <v>787500</v>
       </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" ht="15.75" spans="8:9">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" ht="15" spans="8:9">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -1632,7 +1705,7 @@
         <v>15750</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:4">
+    <row r="17" ht="15" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1661,388 +1734,655 @@
       <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="G21"/>
       <c r="H21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
+        <v>1865600</v>
+      </c>
+      <c r="D22">
+        <v>641300</v>
+      </c>
+      <c r="F22">
+        <v>408100</v>
+      </c>
+      <c r="J22" s="11">
+        <f>SUM(C22:G22)</f>
+        <v>2915000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <f>C22/J22</f>
+        <v>0.64</v>
+      </c>
+      <c r="D23">
+        <f>D22/J22</f>
+        <v>0.22</v>
+      </c>
+      <c r="F23">
+        <f>F22/J22</f>
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>1792000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>42600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="D24">
+        <f>2800000*D23</f>
+        <v>616000</v>
+      </c>
+      <c r="F24">
+        <f>F23*2800000</f>
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C25">
+        <v>422600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>167200</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
         <v>2019000</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>158000</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11">
+        <f>(D24-80000)/20</f>
+        <v>26800</v>
+      </c>
+      <c r="E29" s="11">
+        <f>(E27-390100)/25</f>
+        <v>65156</v>
+      </c>
+      <c r="F29" s="11">
+        <f>F24/14</f>
+        <v>28000</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="7">
+        <f>H28/20</f>
+        <v>7900</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="11">
-        <f>SUM(C22:C26)</f>
-        <v>2001800</v>
-      </c>
-      <c r="D27" s="11">
-        <f t="shared" ref="D27:I27" si="0">SUM(D22:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" si="0"/>
+      <c r="C30" s="11">
+        <f>SUM(C24:C28)</f>
+        <v>2381800</v>
+      </c>
+      <c r="D30" s="11">
+        <f>SUM(D24:D28)</f>
+        <v>616000</v>
+      </c>
+      <c r="E30" s="11">
+        <f>SUM(E24:E28)</f>
         <v>2019000</v>
       </c>
-      <c r="F27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="7">
-        <f t="shared" si="0"/>
+      <c r="F30" s="11">
+        <f>SUM(F24:F28)</f>
+        <v>392000</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="7">
+        <f>SUM(H24:H28)</f>
         <v>158000</v>
       </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" t="s">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
+      <c r="C32" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="33" spans="1:3">
+      <c r="A33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>2381800</v>
+      </c>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>616000</v>
+      </c>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>2019000</v>
+      </c>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>392000</v>
+      </c>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>158000</v>
+      </c>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19">
+        <f>SUM(B33:B37)</f>
+        <v>5566800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="20">
+        <f>SUM(D41:D44)</f>
+        <v>127856</v>
+      </c>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="16">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="16">
+        <v>65156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="16">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:4">
+      <c r="A44" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="21">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
         <v>2010</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="12">
+    <row r="53" spans="1:4">
+      <c r="A53" s="22">
         <v>45292</v>
       </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53">
         <f>255440+15200+2500</f>
         <v>273140</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
         <v>17</v>
       </c>
-      <c r="E40">
+      <c r="E54">
         <v>273140</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12">
+    <row r="55" spans="1:4">
+      <c r="A55" s="22">
         <v>45294</v>
       </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41">
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55">
         <v>3660</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
-      <c r="B42" t="s">
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
         <v>17</v>
       </c>
-      <c r="E42">
+      <c r="E56">
         <v>3660</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="12">
+    <row r="57" spans="1:4">
+      <c r="A57" s="22">
         <v>45657</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="D43">
-        <f>((D39+D41)-(34740+1110))/4</f>
+      <c r="D57">
+        <f>((D53+D55)-(34740+1110))/4</f>
         <v>60237.5</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44">
-        <f>((E40+E42)-(34740+1110))/4</f>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58">
+        <f>((E54+E56)-(34740+1110))/4</f>
         <v>60237.5</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+    <row r="59" spans="1:1">
+      <c r="A59">
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="12">
+    <row r="60" spans="1:4">
+      <c r="A60" s="22">
         <v>45292</v>
       </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46">
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60">
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
-      <c r="B47" t="s">
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="E47">
+      <c r="E61">
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="12">
+    <row r="62" spans="1:4">
+      <c r="A62" s="22">
         <v>45339</v>
       </c>
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48">
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62">
         <v>920</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
-      <c r="B49" t="s">
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
         <v>17</v>
       </c>
-      <c r="E49">
+      <c r="E63">
         <v>920</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12">
+    <row r="64" spans="1:4">
+      <c r="A64" s="22">
         <v>45657</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="D50">
-        <f>((D39+D41-D43+D46)-35850)/5</f>
+      <c r="D64">
+        <f>((D53+D55-D57+D60)-35850)/5</f>
         <v>37042.5</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51">
-        <f>((E40+E42-E44+E47)-35850)/5</f>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65">
+        <f>((E54+E56-E58+E61)-35850)/5</f>
         <v>37042.5</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" ht="15"/>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3">
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
         <v>2010</v>
       </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="13">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="24">
         <v>45292</v>
       </c>
-      <c r="B57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57">
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71">
         <f>19415+1165</f>
         <v>20580</v>
       </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3"/>
-      <c r="B58" t="s">
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E72" s="9">
         <f>19415+1165</f>
         <v>20580</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="13">
+    <row r="73" spans="1:5">
+      <c r="A73" s="24">
         <v>45657</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B73" t="s">
         <v>14</v>
       </c>
-      <c r="D59">
-        <f>(D57-3000)/5</f>
+      <c r="D73">
+        <f>(D71-3000)/5</f>
         <v>3516</v>
       </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3"/>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="9">
-        <f>(E58-3000)/5</f>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="9">
+        <f>(E72-3000)/5</f>
         <v>3516</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3">
+    <row r="75" spans="1:5">
+      <c r="A75" s="3">
         <v>2011</v>
       </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3"/>
-      <c r="B62" t="s">
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D76" s="25">
         <f>((20580-3516)-3500)/3</f>
         <v>4521.33333333333</v>
       </c>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="15">
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="26">
         <v>4521.33333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3">
+    <row r="78" spans="1:5">
+      <c r="A78" s="3">
         <v>2012</v>
       </c>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="3"/>
-      <c r="B65" t="s">
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D79" s="25">
         <v>4521.33333333333</v>
       </c>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="3"/>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="15">
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="26">
         <v>4521.33333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="3"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="3"/>
-      <c r="B68" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" t="s">
         <v>17</v>
       </c>
-      <c r="D68">
+      <c r="D82">
         <v>6200</v>
       </c>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="3"/>
-      <c r="B69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="14">
-        <f>SUM(E60,E63,E66)</f>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="25">
+        <f>SUM(E74,E77,E80)</f>
         <v>12558.6666666667</v>
       </c>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="3"/>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70">
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84">
         <f>-(6200-(20580-12558))</f>
         <v>1822</v>
       </c>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" ht="15.75" spans="1:5">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="16">
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" ht="15" spans="1:5">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="23">
         <v>20580</v>
       </c>
     </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <f>(210000-20000)/4</f>
+        <v>47500</v>
+      </c>
+      <c r="D90">
+        <f>121400*0.4</f>
+        <v>48560</v>
+      </c>
+      <c r="I90" t="s">
+        <v>47</v>
+      </c>
+      <c r="L90">
+        <f>(210000-20000)/475000</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f>(210000-20000)/4</f>
+        <v>47500</v>
+      </c>
+      <c r="D91">
+        <f>122400*0.4</f>
+        <v>48960</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91">
+        <f>100%/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <f>(210000-20000)/4</f>
+        <v>47500</v>
+      </c>
+      <c r="D92">
+        <f>119600*0.4</f>
+        <v>47840</v>
+      </c>
+      <c r="I92" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92"/>
+      <c r="L92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <f>(210000-20000)/4</f>
+        <v>47500</v>
+      </c>
+      <c r="D93">
+        <f>0.4*(475000-121400-122400-119600)</f>
+        <v>44640</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
@@ -2064,9 +2404,7 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="F25:G25"/>
@@ -2075,6 +2413,10 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
